--- a/TSE/Timing Mandelbrot.xlsx
+++ b/TSE/Timing Mandelbrot.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lars\Documents\GitHub\TSE6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\S6T\TSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -193,6 +193,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -228,6 +245,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -380,35 +414,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H15"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.109375" style="1"/>
     <col min="10" max="10" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -466,7 +500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>800</v>
       </c>
@@ -489,7 +523,7 @@
         <v>1024</v>
       </c>
       <c r="H3" s="1">
-        <v>487.31498299999998</v>
+        <v>520.19200000000001</v>
       </c>
       <c r="J3" s="1">
         <v>800</v>
@@ -513,7 +547,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1024</v>
       </c>
@@ -536,7 +570,7 @@
         <v>1024</v>
       </c>
       <c r="H4" s="1">
-        <v>500.24493799999999</v>
+        <v>527.01</v>
       </c>
       <c r="J4" s="1">
         <v>1024</v>
@@ -560,7 +594,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1280</v>
       </c>
@@ -583,7 +617,7 @@
         <v>1024</v>
       </c>
       <c r="H5" s="1">
-        <v>518.01399600000002</v>
+        <v>549.63199999999995</v>
       </c>
       <c r="J5" s="1">
         <v>1280</v>
@@ -607,7 +641,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1600</v>
       </c>
@@ -630,7 +664,7 @@
         <v>1024</v>
       </c>
       <c r="H6" s="1">
-        <v>523.68114800000001</v>
+        <v>556.80399999999997</v>
       </c>
       <c r="J6" s="1">
         <v>1600</v>
@@ -654,7 +688,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1920</v>
       </c>
@@ -677,7 +711,7 @@
         <v>1024</v>
       </c>
       <c r="H7" s="1">
-        <v>548.57552799999996</v>
+        <v>589.14400000000001</v>
       </c>
       <c r="J7" s="1">
         <v>1920</v>
@@ -701,7 +735,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1920</v>
       </c>
@@ -724,7 +758,7 @@
         <v>1024</v>
       </c>
       <c r="H8" s="1">
-        <v>7397.787816</v>
+        <v>7678.93</v>
       </c>
       <c r="J8" s="1">
         <v>1920</v>
@@ -748,7 +782,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1920</v>
       </c>
@@ -771,7 +805,7 @@
         <v>1024</v>
       </c>
       <c r="H9" s="1">
-        <v>1913.490311</v>
+        <v>2017.3920000000001</v>
       </c>
       <c r="J9" s="1">
         <v>1920</v>
@@ -795,7 +829,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1920</v>
       </c>
@@ -818,7 +852,7 @@
         <v>1024</v>
       </c>
       <c r="H10" s="1">
-        <v>80.051231999999999</v>
+        <v>86.903000000000006</v>
       </c>
       <c r="J10" s="1">
         <v>1920</v>
@@ -842,7 +876,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1920</v>
       </c>
@@ -865,7 +899,7 @@
         <v>1024</v>
       </c>
       <c r="H11" s="1">
-        <v>80.298935</v>
+        <v>88.971999999999994</v>
       </c>
       <c r="J11" s="1">
         <v>1920</v>
@@ -889,7 +923,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>3840</v>
       </c>
@@ -912,7 +946,7 @@
         <v>1024</v>
       </c>
       <c r="H12" s="1">
-        <v>58611.117652000001</v>
+        <v>60477.2</v>
       </c>
       <c r="J12" s="1">
         <v>3840</v>
@@ -936,7 +970,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>3840</v>
       </c>
@@ -959,7 +993,7 @@
         <v>1024</v>
       </c>
       <c r="H13" s="1">
-        <v>940.20552699999996</v>
+        <v>987.69600000000003</v>
       </c>
       <c r="J13" s="1">
         <v>3840</v>
@@ -983,7 +1017,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>3840</v>
       </c>
@@ -1006,7 +1040,7 @@
         <v>1024</v>
       </c>
       <c r="H14" s="1">
-        <v>539.29080199999999</v>
+        <v>565.20299999999997</v>
       </c>
       <c r="J14" s="1">
         <v>3840</v>
@@ -1030,7 +1064,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>3840</v>
       </c>
@@ -1053,7 +1087,7 @@
         <v>1024</v>
       </c>
       <c r="H15" s="1">
-        <v>401.10909500000002</v>
+        <v>415.779</v>
       </c>
       <c r="J15" s="1">
         <v>3840</v>
@@ -1075,6 +1109,100 @@
       </c>
       <c r="P15" s="1">
         <v>1024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>3840</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2160</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>800</v>
+      </c>
+      <c r="F16" s="1">
+        <v>8192</v>
+      </c>
+      <c r="G16" s="1">
+        <v>512</v>
+      </c>
+      <c r="H16" s="1">
+        <v>60663.499000000003</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3840</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2160</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>800</v>
+      </c>
+      <c r="O16" s="1">
+        <v>8192</v>
+      </c>
+      <c r="P16" s="1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>3840</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2160</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>800</v>
+      </c>
+      <c r="F17" s="1">
+        <v>8192</v>
+      </c>
+      <c r="G17" s="1">
+        <v>16</v>
+      </c>
+      <c r="H17" s="1">
+        <v>61023</v>
+      </c>
+      <c r="J17" s="1">
+        <v>3840</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2160</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>800</v>
+      </c>
+      <c r="O17" s="1">
+        <v>8192</v>
+      </c>
+      <c r="P17" s="1">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/TSE/Timing Mandelbrot.xlsx
+++ b/TSE/Timing Mandelbrot.xlsx
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,7 +438,7 @@
     <col min="14" max="14" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.109375" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
@@ -546,6 +546,9 @@
       <c r="P3" s="1">
         <v>1024</v>
       </c>
+      <c r="Q3" s="1">
+        <v>2.6100000000000002E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -592,6 +595,9 @@
       </c>
       <c r="P4" s="1">
         <v>1024</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1.7100000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -640,6 +646,9 @@
       <c r="P5" s="1">
         <v>1024</v>
       </c>
+      <c r="Q5" s="1">
+        <v>1.84E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -687,6 +696,9 @@
       <c r="P6" s="1">
         <v>1024</v>
       </c>
+      <c r="Q6" s="1">
+        <v>1.9199999999999998E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -734,6 +746,9 @@
       <c r="P7" s="1">
         <v>1024</v>
       </c>
+      <c r="Q7" s="1">
+        <v>2.6499999999999999E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -781,6 +796,9 @@
       <c r="P8" s="1">
         <v>1024</v>
       </c>
+      <c r="Q8" s="1">
+        <v>1.9699999999999999E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -828,6 +846,9 @@
       <c r="P9" s="1">
         <v>1024</v>
       </c>
+      <c r="Q9" s="1">
+        <v>2.2700000000000001E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -875,6 +896,9 @@
       <c r="P10" s="1">
         <v>1024</v>
       </c>
+      <c r="Q10" s="1">
+        <v>3.1600000000000003E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -922,6 +946,9 @@
       <c r="P11" s="1">
         <v>1024</v>
       </c>
+      <c r="Q11" s="1">
+        <v>2.2200000000000001E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -969,6 +996,9 @@
       <c r="P12" s="1">
         <v>1024</v>
       </c>
+      <c r="Q12" s="1">
+        <v>1.8800000000000001E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -1016,6 +1046,9 @@
       <c r="P13" s="1">
         <v>1024</v>
       </c>
+      <c r="Q13" s="1">
+        <v>2.0500000000000001E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -1063,6 +1096,9 @@
       <c r="P14" s="1">
         <v>1024</v>
       </c>
+      <c r="Q14" s="1">
+        <v>2.2200000000000001E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -1110,6 +1146,9 @@
       <c r="P15" s="1">
         <v>1024</v>
       </c>
+      <c r="Q15" s="1">
+        <v>1.7100000000000001E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -1157,8 +1196,11 @@
       <c r="P16" s="1">
         <v>512</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q16" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>3840</v>
       </c>
@@ -1203,6 +1245,9 @@
       </c>
       <c r="P17" s="1">
         <v>16</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1.8800000000000001E-2</v>
       </c>
     </row>
   </sheetData>
